--- a/all_annotated/NWSA_Q2_2011_3.xlsx
+++ b/all_annotated/NWSA_Q2_2011_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruv/Desktop/SubjECTive-QA/Dhruv-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB51B35-97F4-9F41-9A15-7F165731D4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507F589-622C-CA4E-BBC7-25BA4317CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>asker</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Jolanta Masojada:</t>
   </si>
   <si>
-    <t>Thanks very much. Chase, I wondered if you could talk through the economics of The Daily. What's the total investment, when are you looking for it to achieve break-even, and what are the implications for your newspaper strategy more broadly?</t>
-  </si>
-  <si>
     <t>Well, the last part is what are the implications of The Daily launch for your newspaper strategy in other markets?</t>
   </si>
   <si>
@@ -281,12 +278,6 @@
   </si>
   <si>
     <t>Yes, that’s going to give $500,000 a week a total cost.</t>
-  </si>
-  <si>
-    <t>Okay. I don’t mean if I’m dense about it. There has been a lot of numbers thrown around today and there are a lot of people interpreting them in different ways, so I appreciate you’re clearing.</t>
-  </si>
-  <si>
-    <t>Does that make sense though?</t>
   </si>
   <si>
     <t>I think, I think it does, you know, also there is some suggestion today from Mr. Murdoch on Fox Business Network that Apple might be willing to renegotiate the 30% split after the first year, is that something you can address further?</t>
@@ -701,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="249" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="164" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1360,10 +1351,10 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1372,27 +1363,27 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1404,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1415,19 +1406,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1439,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1447,19 +1438,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1471,24 +1462,24 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1497,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1511,77 +1502,77 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
@@ -1590,36 +1581,36 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1631,24 +1622,24 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1671,22 +1662,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1703,22 +1694,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1735,19 +1726,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
         <v>86</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1762,155 +1753,91 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
